--- a/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/亏损企业单位数.xlsx
+++ b/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/亏损企业单位数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,385 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1069</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1037</v>
-      </c>
-      <c r="D2" t="n">
-        <v>245</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>160</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1200</v>
-      </c>
-      <c r="H2" t="n">
-        <v>77</v>
-      </c>
-      <c r="I2" t="n">
-        <v>411</v>
-      </c>
-      <c r="J2" t="n">
-        <v>754</v>
-      </c>
-      <c r="K2" t="n">
-        <v>18223</v>
-      </c>
-      <c r="L2" t="n">
-        <v>339</v>
-      </c>
-      <c r="M2" t="n">
-        <v>82</v>
-      </c>
-      <c r="N2" t="n">
-        <v>90</v>
-      </c>
-      <c r="O2" t="n">
-        <v>997</v>
-      </c>
-      <c r="P2" t="n">
-        <v>174</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>155</v>
-      </c>
-      <c r="R2" t="n">
-        <v>172</v>
-      </c>
-      <c r="S2" t="n">
-        <v>268</v>
-      </c>
-      <c r="T2" t="n">
-        <v>197</v>
-      </c>
-      <c r="U2" t="n">
-        <v>143</v>
-      </c>
-      <c r="V2" t="n">
-        <v>66</v>
-      </c>
-      <c r="W2" t="n">
-        <v>123</v>
-      </c>
-      <c r="X2" t="n">
-        <v>489</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>995</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>388</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>525</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>141</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>75</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>799</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>825</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>336</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>538</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1413</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>196</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>739</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>2045</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>569</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>261</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>988</v>
-      </c>
-      <c r="C3" t="n">
-        <v>963</v>
-      </c>
-      <c r="D3" t="n">
-        <v>269</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>140</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1065</v>
-      </c>
-      <c r="H3" t="n">
-        <v>85</v>
-      </c>
-      <c r="I3" t="n">
-        <v>398</v>
-      </c>
-      <c r="J3" t="n">
-        <v>722</v>
-      </c>
-      <c r="K3" t="n">
-        <v>16858</v>
-      </c>
-      <c r="L3" t="n">
-        <v>305</v>
-      </c>
-      <c r="M3" t="n">
-        <v>80</v>
-      </c>
-      <c r="N3" t="n">
-        <v>65</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1032</v>
-      </c>
-      <c r="P3" t="n">
-        <v>199</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>149</v>
-      </c>
-      <c r="R3" t="n">
-        <v>181</v>
-      </c>
-      <c r="S3" t="n">
-        <v>191</v>
-      </c>
-      <c r="T3" t="n">
-        <v>191</v>
-      </c>
-      <c r="U3" t="n">
-        <v>125</v>
-      </c>
-      <c r="V3" t="n">
-        <v>84</v>
-      </c>
-      <c r="W3" t="n">
-        <v>127</v>
-      </c>
-      <c r="X3" t="n">
-        <v>359</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1098</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>386</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>529</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>124</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>83</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>879</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>896</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>281</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>465</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1246</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>167</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>586</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1551</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>516</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>225</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>837</v>
-      </c>
-      <c r="C4" t="n">
-        <v>840</v>
-      </c>
-      <c r="D4" t="n">
-        <v>219</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>110</v>
-      </c>
-      <c r="G4" t="n">
-        <v>931</v>
-      </c>
-      <c r="H4" t="n">
-        <v>78</v>
-      </c>
-      <c r="I4" t="n">
-        <v>362</v>
-      </c>
-      <c r="J4" t="n">
-        <v>633</v>
-      </c>
-      <c r="K4" t="n">
-        <v>14865</v>
-      </c>
-      <c r="L4" t="n">
-        <v>256</v>
-      </c>
-      <c r="M4" t="n">
-        <v>57</v>
-      </c>
-      <c r="N4" t="n">
-        <v>53</v>
-      </c>
-      <c r="O4" t="n">
-        <v>880</v>
-      </c>
-      <c r="P4" t="n">
-        <v>176</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>123</v>
-      </c>
-      <c r="R4" t="n">
-        <v>156</v>
-      </c>
-      <c r="S4" t="n">
-        <v>154</v>
-      </c>
-      <c r="T4" t="n">
-        <v>151</v>
-      </c>
-      <c r="U4" t="n">
-        <v>107</v>
-      </c>
-      <c r="V4" t="n">
-        <v>55</v>
-      </c>
-      <c r="W4" t="n">
-        <v>118</v>
-      </c>
-      <c r="X4" t="n">
-        <v>274</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1235</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>369</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>460</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>105</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>73</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>730</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1026</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>237</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>419</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1144</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>165</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>424</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1196</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>430</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>193</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>40</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
